--- a/Datasets+Emoji/Done/Datasets_Ganjar.xlsx
+++ b/Datasets+Emoji/Done/Datasets_Ganjar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\Datasets+Emoji\Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CAEE1-6C87-4FF4-B9C8-8FF6AAEB17B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C87644-CC4E-44F1-91CF-A0AFB0861F94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
